--- a/Table_S10.xlsx
+++ b/Table_S10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-32640" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28320" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -344,6 +344,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,11 +358,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,15 +637,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>33</v>
       </c>
     </row>
@@ -666,9 +666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="L1:M1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -709,14 +707,14 @@
       <c r="J1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="21"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
@@ -803,7 +801,7 @@
       <c r="J3" s="11">
         <v>1.4797322070673122E-3</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="19" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="10">
@@ -815,7 +813,7 @@
       <c r="O3" s="10">
         <v>3.4649175099999998</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="20">
         <v>0.96099521099999996</v>
       </c>
       <c r="Q3" s="11">
@@ -855,7 +853,7 @@
       <c r="J4" s="11">
         <v>-6.5893717455100045E-3</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="19" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="10">
@@ -867,7 +865,7 @@
       <c r="O4" s="10">
         <v>7.73155796</v>
       </c>
-      <c r="P4" s="23">
+      <c r="P4" s="20">
         <v>2.1443483589999999</v>
       </c>
       <c r="Q4" s="11">
@@ -907,7 +905,7 @@
       <c r="J5" s="11">
         <v>-2.348675813990329E-2</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="19" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="10">
@@ -919,7 +917,7 @@
       <c r="O5" s="10">
         <v>1.03119425</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="20">
         <v>0.28600182699999999</v>
       </c>
       <c r="Q5" s="11">
@@ -959,7 +957,7 @@
       <c r="J6" s="11">
         <v>-2.0267353836165552E-2</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="19" t="s">
         <v>14</v>
       </c>
       <c r="M6" s="10">
@@ -971,7 +969,7 @@
       <c r="O6" s="10">
         <v>3.1751206299999999</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P6" s="20">
         <v>0.880620018</v>
       </c>
       <c r="Q6" s="11">
@@ -1011,7 +1009,7 @@
       <c r="J7" s="11">
         <v>-7.1724540844367995E-3</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="19" t="s">
         <v>18</v>
       </c>
       <c r="M7" s="10">
@@ -1023,7 +1021,7 @@
       <c r="O7" s="10">
         <v>1.27968514</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="20">
         <v>0.35492079799999998</v>
       </c>
       <c r="Q7" s="11">
@@ -1063,7 +1061,7 @@
       <c r="J8" s="11">
         <v>-8.9882117667621775E-3</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="19" t="s">
         <v>20</v>
       </c>
       <c r="M8" s="10">
@@ -1075,7 +1073,7 @@
       <c r="O8" s="10">
         <v>0.12831118</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="20">
         <v>3.5587119E-2</v>
       </c>
       <c r="Q8" s="11">
@@ -1115,7 +1113,7 @@
       <c r="J9" s="11">
         <v>4.5884151063533378E-3</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="19" t="s">
         <v>22</v>
       </c>
       <c r="M9" s="10">
@@ -1167,7 +1165,7 @@
       <c r="J10" s="11">
         <v>-5.9187782371869571E-3</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="19" t="s">
         <v>24</v>
       </c>
       <c r="M10" s="10">
@@ -1179,7 +1177,7 @@
       <c r="O10" s="10">
         <v>6.5729999999999997E-2</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P10" s="20">
         <v>1.8230221000000001E-2</v>
       </c>
       <c r="Q10" s="11">
@@ -1219,7 +1217,7 @@
       <c r="J11" s="11">
         <v>0.68316711561572196</v>
       </c>
-      <c r="L11" s="22" t="s">
+      <c r="L11" s="19" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="10">
@@ -1231,7 +1229,7 @@
       <c r="O11" s="10">
         <v>0.99995937000000001</v>
       </c>
-      <c r="P11" s="23">
+      <c r="P11" s="20">
         <v>0.27733883100000001</v>
       </c>
       <c r="Q11" s="11">
@@ -1271,7 +1269,7 @@
       <c r="J12" s="11">
         <v>-2.0158001008835566E-3</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="19" t="s">
         <v>21</v>
       </c>
       <c r="M12" s="10">
@@ -1283,7 +1281,7 @@
       <c r="O12" s="10">
         <v>19.135604449999999</v>
       </c>
-      <c r="P12" s="23">
+      <c r="P12" s="20">
         <v>5.3072617700000002</v>
       </c>
       <c r="Q12" s="11">
@@ -1323,7 +1321,7 @@
       <c r="J13" s="11">
         <v>3.4654755477606693E-3</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="L13" s="21" t="s">
         <v>25</v>
       </c>
       <c r="M13" s="17">
@@ -1335,7 +1333,7 @@
       <c r="O13" s="17">
         <v>13.91915609</v>
       </c>
-      <c r="P13" s="25">
+      <c r="P13" s="22">
         <v>3.8604793079999999</v>
       </c>
       <c r="Q13" s="18">
